--- a/src/data/MyMoney.xlsx
+++ b/src/data/MyMoney.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samwsm/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samwsm/Desktop/reactProject/my-documents/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13B4C16-81D1-5148-82DB-3E36A5FA2941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE932F9C-47D5-AE47-894E-AC430D805F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16940" activeTab="2" xr2:uid="{095DCBF5-56A0-4647-9B2C-E1EFFD246EE5}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="141">
   <si>
     <t>京东金融</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -617,12 +617,243 @@
     <t>建信理财建信宝产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">买入：0.15%
+卖出：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="2" tint="-0.499984740745262"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0-7天 1.5%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7-1年 0.5%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1-2年 0.3%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&gt;2年 0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找时机分批赎回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不记了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续买入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找时机买入卖出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.17自动赎回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘永利A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出：
+0-7天 1.5%
+7-30天 0.75%
+30-60天  0.3%
+&gt;60天  0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定投：
+每双周周一500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博时稳健回报C类LOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出：
+0-7天 1.5%
+7-30天 0.75%
+&gt;30天  0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧瑾通灵活配置混合C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出：
+0-7天 1.5%
+7-30天 0.5%
+&gt;30天  1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大摩双利增强C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银瑞信文体产业A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商中证白酒指数A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入：0.1%
+卖出：
+0-7天 1.5%
+7-1年 0.5%
+1-2年 0.25%
+&gt;2年 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银华心怡灵活配置A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入：1.2%
+卖出：
+0-7天 1.5%
+7-30天 0.75%
+1月-1年 0.5%
+1-2年 0.3%
+&gt;2年 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入：1.2%
+卖出：
+0-1月 1.5%
+1月-1年 0.5%
+1-2年 0.25%
+&gt;2年 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏华空天军工指数C类LOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出：
+0-7天 1.5%
+&gt;7天 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找时机全部赎回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招行特色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行定期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不计入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银华攻守平衡组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -739,8 +970,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -777,6 +1030,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -953,67 +1212,97 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1023,37 +1312,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1373,8 +1656,10 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1382,7 +1667,7 @@
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
     <col min="8" max="8" width="11.83203125" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" customWidth="1"/>
     <col min="12" max="12" width="15.5" customWidth="1"/>
@@ -1391,601 +1676,667 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="22" thickBot="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="102">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>5000</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="68">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
         <v>2500</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
         <v>2000</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
         <v>1000</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
         <v>2000</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
         <v>3000</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="11" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
         <v>2000</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="11" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
         <v>1000</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="11" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
         <v>1000</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="11" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="102">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="11" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="119">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="30" t="s">
+      <c r="C18" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="24">
         <v>4300</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29" t="s">
+      <c r="F18" s="24"/>
+      <c r="G18" s="24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="29" t="s">
+    <row r="19" spans="1:7" ht="102">
+      <c r="A19" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
+      <c r="C19" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="24">
+        <v>3700</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
+      <c r="C20" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="33">
+        <v>6100</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="C21" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="33">
+        <v>4900</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="C22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="6">
+        <v>3700</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
+      <c r="C23" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="33">
+        <v>3800</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
+      <c r="C24" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="33">
+        <v>3000</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
+      <c r="C25" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="33">
+        <v>3900</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="C26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="6">
+        <v>6700</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="C27" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="33">
+        <v>3643</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="C28" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="33">
+        <v>2639</v>
+      </c>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+      <c r="C29" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="33">
+        <v>2500</v>
+      </c>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="34">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="8" t="s">
+      <c r="C30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="6">
         <v>2000</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G30" s="8"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="C31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="6">
         <v>1000</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8" t="s">
+      <c r="F31" s="6"/>
+      <c r="G31" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="28" t="s">
+      <c r="C32" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31" t="s">
-        <v>23</v>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2002,8 +2353,10 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G3"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2016,250 +2369,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" thickBot="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="22" thickBot="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="68">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:7" ht="51">
+      <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="16">
-        <v>0</v>
-      </c>
-      <c r="E3" s="17">
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
         <v>2000</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="16">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17">
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
         <v>1000</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="16">
-        <v>0</v>
-      </c>
-      <c r="E5" s="17">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16" t="s">
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="16">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="51">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:7" ht="34">
+      <c r="A7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="16">
-        <v>0</v>
-      </c>
-      <c r="E7" s="17">
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
         <v>2000</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" ht="51">
-      <c r="A8" s="15" t="s">
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="34">
+      <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="16">
-        <v>0</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
         <v>1000</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" ht="51">
-      <c r="A9" s="15" t="s">
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" ht="34">
+      <c r="A9" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="16">
-        <v>0</v>
-      </c>
-      <c r="E9" s="17">
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
         <v>4400</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" ht="34">
-      <c r="A10" s="19" t="s">
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" ht="17">
+      <c r="A10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="16">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17">
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
         <v>4100</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" ht="85">
-      <c r="A11" s="23" t="s">
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" ht="68">
+      <c r="A11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="21">
         <v>400</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="27" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="85">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:7" ht="51">
+      <c r="A12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="24">
-        <v>0</v>
-      </c>
-      <c r="E12" s="26">
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="21">
         <v>2000</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="27" t="s">
+      <c r="F12" s="19"/>
+      <c r="G12" s="22" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2274,121 +2627,470 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1723A865-1849-474C-84E1-3F162DA8F6C0}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" thickBot="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="22" thickBot="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="16">
-        <v>0</v>
-      </c>
-      <c r="E3" s="33">
-        <v>0</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="18" t="s">
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="28">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="16">
-        <v>0</v>
-      </c>
-      <c r="E4" s="33">
-        <v>0</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="18" t="s">
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="28">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>104</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="34">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>105</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="34">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>106</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>107</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="85">
+      <c r="A10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="37">
+        <v>7400</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="68">
+      <c r="A11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="68">
+      <c r="A12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="68">
+      <c r="A13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="119">
+      <c r="A14" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="33">
+        <v>4900</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="102">
+      <c r="A15" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="33">
+        <v>4300</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="102">
+      <c r="A16" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="33">
+        <v>1700</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="51">
+      <c r="A17" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="33">
+        <v>1300</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="34">
+        <v>0</v>
+      </c>
+      <c r="E18" s="39">
+        <v>10000</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17">
+      <c r="A19" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="41">
+        <v>0</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17">
+      <c r="A20" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="38">
+        <v>900</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/MyMoney.xlsx
+++ b/src/data/MyMoney.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samwsm/Desktop/reactProject/my-documents/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE932F9C-47D5-AE47-894E-AC430D805F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D72B3E-AA09-914B-AC65-A97E7BC6A502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16940" activeTab="2" xr2:uid="{095DCBF5-56A0-4647-9B2C-E1EFFD246EE5}"/>
   </bookViews>
   <sheets>
-    <sheet name="京东金融" sheetId="1" r:id="rId1"/>
-    <sheet name="支付宝" sheetId="2" r:id="rId2"/>
+    <sheet name="支付宝" sheetId="2" r:id="rId1"/>
+    <sheet name="京东金融" sheetId="1" r:id="rId2"/>
     <sheet name="招商银行" sheetId="3" r:id="rId3"/>
     <sheet name="东方财富" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="144">
   <si>
     <t>京东金融</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,13 +69,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建信养老飞越366</t>
-  </si>
-  <si>
     <t>养老保险</t>
-  </si>
-  <si>
-    <t>养老保险</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -86,9 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一年</t>
-  </si>
-  <si>
     <t>费率</t>
   </si>
   <si>
@@ -96,21 +87,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无需操作
-6-16自动赎回
-6-17到账</t>
-  </si>
-  <si>
-    <t>安增益31天</t>
-  </si>
-  <si>
-    <t>一月</t>
-  </si>
-  <si>
     <t>暂不操作</t>
-  </si>
-  <si>
-    <t>暂不操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -142,24 +119,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平安元盛超短债债券E</t>
-  </si>
-  <si>
     <t>债券基金</t>
   </si>
   <si>
     <t>债券基金</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖出未到账
-预计2-23到账</t>
-  </si>
-  <si>
-    <t>长城收益宝货币A</t>
-  </si>
-  <si>
-    <t>财通安瑞短债债券C</t>
   </si>
   <si>
     <t>鹏华新兴产业混合</t>
@@ -181,12 +145,6 @@
   <si>
     <t>23-10-9后可卖出
 看到时收益情况择时卖出</t>
-  </si>
-  <si>
-    <t>易方达稳鑫30天滚动持有短债债券C</t>
-  </si>
-  <si>
-    <t>已预约到期赎回</t>
   </si>
   <si>
     <t>小金库</t>
@@ -549,10 +507,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>南方绝对收益组合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>投资组合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -561,11 +515,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已转出
-5-26到账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目标盈168期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -583,10 +532,6 @@
   </si>
   <si>
     <t>卖出：0.3%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16.4251克</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -848,12 +793,94 @@
     <t>基金组合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>少量加仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中量加仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多量加仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定投+
+不定期大量加仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满一年后卖出
+转入下方同名基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视情况操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视情况卖出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-12自动赎回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到期自动赎回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净转入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总转入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>381.6份转出中
+预计6.20到账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400份转出中
+预计6.20到账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500份转出中
+预计6.20到账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.4276克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部转出中
+预计6.21到账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -992,6 +1019,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1212,7 +1256,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1234,9 +1278,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1258,15 +1299,9 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1297,46 +1332,70 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1652,711 +1711,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBABDC3C-2310-984E-9FD2-7603500E0D59}">
-  <dimension ref="A1:G32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.5" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="18.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="24" thickBot="1">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row r="2" spans="1:7" ht="22" thickBot="1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="102">
-      <c r="A4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="68">
-      <c r="A5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="102">
-      <c r="A17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="119">
-      <c r="A18" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="24">
-        <v>4300</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="102">
-      <c r="A19" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="24">
-        <v>3700</v>
-      </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="33">
-        <v>6100</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="33">
-        <v>4900</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="6">
-        <v>3700</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23" s="33">
-        <v>3800</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" s="33">
-        <v>3000</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" s="33">
-        <v>3900</v>
-      </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="6">
-        <v>6700</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" s="33">
-        <v>3643</v>
-      </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" s="33">
-        <v>2639</v>
-      </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" s="33">
-        <v>2500</v>
-      </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="34">
-      <c r="A30" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="6">
-        <v>2000</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="6">
-        <v>1000</v>
-      </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBBE6CD-5B34-ED4F-B447-95BD12C5CF73}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2369,251 +1731,810 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:7" ht="22" thickBot="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="C3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="68">
+      <c r="A5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="18">
+        <v>400</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="51">
+      <c r="A6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1700</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBABDC3C-2310-984E-9FD2-7603500E0D59}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="24" thickBot="1">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+    </row>
+    <row r="2" spans="1:7" ht="22" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="102">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="68">
+      <c r="A5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="51">
-      <c r="A3" s="13" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="C10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="14">
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E11" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
         <v>2000</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="14">
+      <c r="F13" s="3"/>
+      <c r="G13" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
         <v>1000</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="102">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="13" t="s">
+      <c r="D17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="119">
+      <c r="A18" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="21">
+        <v>4800</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="102">
+      <c r="A19" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="21">
+        <v>4200</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="B20" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="25">
+        <v>6600</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="25">
+        <v>5200</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="14">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="C22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="6">
+        <v>3800</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="25">
+        <v>3800</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="25">
+        <v>3100</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="25">
+        <v>4200</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="14">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="34">
-      <c r="A7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="14">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>2000</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" ht="34">
-      <c r="A8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="14">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" ht="34">
-      <c r="A9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="14">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
-        <v>4400</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" ht="17">
-      <c r="A10" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="14">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15">
-        <v>4100</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" ht="68">
-      <c r="A11" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="20" t="s">
+      <c r="C26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="6">
+        <v>6700</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="25">
+        <v>3700</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="34">
+      <c r="A28" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="38">
+        <v>2900</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="34">
+      <c r="A29" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="21">
-        <v>400</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="51">
-      <c r="A12" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="19">
-        <v>0</v>
-      </c>
-      <c r="E12" s="21">
-        <v>2000</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="22" t="s">
-        <v>43</v>
+      <c r="C29" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="38">
+        <v>2700</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="39">
+        <v>900</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2630,10 +2551,10 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="A1:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2646,451 +2567,451 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:7" ht="22" thickBot="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17">
-      <c r="A3" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="14">
+      <c r="A3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="13">
         <v>0</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17">
+      <c r="A4" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="13">
         <v>0</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17">
-      <c r="A4" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0</v>
-      </c>
-      <c r="E4" s="28">
-        <v>0</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>31</v>
+      <c r="E4" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="14">
+        <v>55</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="13">
         <v>0</v>
       </c>
       <c r="E5" s="3">
         <v>5000</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>29</v>
+      <c r="F5" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="14">
+        <v>55</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="13">
         <v>0</v>
       </c>
       <c r="E6" s="3">
         <v>3000</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>29</v>
+      <c r="F6" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="34">
       <c r="A7" s="4" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="14">
+        <v>55</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="13">
         <v>0</v>
       </c>
       <c r="E7" s="3">
         <v>10300</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>29</v>
+      <c r="F7" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="34">
       <c r="A8" s="4" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="14">
+        <v>55</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="13">
         <v>0</v>
       </c>
       <c r="E8" s="3">
         <v>2000</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="14">
+        <v>55</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="13">
         <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="85">
       <c r="A10" s="3" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>27</v>
+        <v>101</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="37">
+        <v>102</v>
+      </c>
+      <c r="E10" s="46">
         <v>7400</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="68">
       <c r="A11" s="3" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>27</v>
+        <v>101</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E11" s="3">
         <v>6400</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="68">
       <c r="A12" s="4" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>27</v>
+        <v>101</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E12" s="3">
         <v>6000</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="68">
       <c r="A13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="119">
+      <c r="A14" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="25">
+        <v>5200</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="102">
+      <c r="A15" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="25">
+        <v>4700</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="102">
+      <c r="A16" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="25">
+        <v>1800</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="51">
+      <c r="A17" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="25">
+        <v>1400</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="26">
+        <v>0</v>
+      </c>
+      <c r="E18" s="30">
+        <v>10000</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17">
+      <c r="A19" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="32">
+        <v>0</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17">
+      <c r="A20" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C20" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="29">
+        <v>900</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>117</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="3">
-        <v>5900</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="119">
-      <c r="A14" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="33">
-        <v>4900</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="102">
-      <c r="A15" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="33">
-        <v>4300</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="102">
-      <c r="A16" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="33">
-        <v>1700</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="51">
-      <c r="A17" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="33">
-        <v>1300</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="34">
-        <v>0</v>
-      </c>
-      <c r="E18" s="39">
-        <v>10000</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17">
-      <c r="A19" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="41">
-        <v>0</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17">
-      <c r="A20" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="38">
-        <v>900</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3104,14 +3025,106 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB1FAFE-9108-BC46-85C0-4CA954926725}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="33"/>
+    <col min="3" max="3" width="11" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21">
+      <c r="A1" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18">
+      <c r="A2" s="35">
+        <v>44711</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="36">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
